--- a/H20_Cysteine/h2o+o_diffusion.xlsx
+++ b/H20_Cysteine/h2o+o_diffusion.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/H20_Cysteine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624124DC-147E-764A-9EB3-A0D1CAD2A4A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD19A878-EA53-5247-BCAF-921492AFB139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="9300" windowWidth="25240" windowHeight="13940" activeTab="1" xr2:uid="{CAA24144-FA33-9641-B8BB-801783C5E6E1}"/>
+    <workbookView xWindow="760" yWindow="2380" windowWidth="25240" windowHeight="13940" activeTab="1" xr2:uid="{CAA24144-FA33-9641-B8BB-801783C5E6E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -86,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -15779,16 +15788,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFA123D-9BDE-1D4B-8843-E24384A7FC1E}">
   <dimension ref="B2:AR402"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AP4" activeCellId="2" sqref="J4 AC4 AP4"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:44">
+    <row r="2" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>2</v>
       </c>
@@ -15826,7 +15835,7 @@
         <v>3.5744999999999997E-5</v>
       </c>
     </row>
-    <row r="3" spans="2:44">
+    <row r="3" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -15870,7 +15879,7 @@
         <v>35744999999.999992</v>
       </c>
     </row>
-    <row r="4" spans="2:44">
+    <row r="4" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -15923,7 +15932,7 @@
         <v>3.5744999999999989E-10</v>
       </c>
     </row>
-    <row r="5" spans="2:44">
+    <row r="5" spans="2:44" x14ac:dyDescent="0.2">
       <c r="D5">
         <f>D4/30</f>
         <v>7.1063333333333327E-9</v>
@@ -15937,12 +15946,12 @@
         <v>7.180333333333333E-9</v>
       </c>
     </row>
-    <row r="6" spans="2:44">
+    <row r="6" spans="2:44" x14ac:dyDescent="0.2">
       <c r="O6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:44">
+    <row r="7" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -15977,7 +15986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:44">
+    <row r="9" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>50</v>
       </c>
@@ -16090,7 +16099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:44">
+    <row r="10" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>100</v>
       </c>
@@ -16203,7 +16212,7 @@
         <v>2.9253538115339199E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:44">
+    <row r="11" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>150</v>
       </c>
@@ -16316,7 +16325,7 @@
         <v>6.98908416255309E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:44">
+    <row r="12" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>200</v>
       </c>
@@ -16429,7 +16438,7 @@
         <v>4.3348623356057499E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:44">
+    <row r="13" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>250</v>
       </c>
@@ -16542,7 +16551,7 @@
         <v>9.11922036354057E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:44">
+    <row r="14" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>300</v>
       </c>
@@ -16655,7 +16664,7 @@
         <v>0.12909351480130399</v>
       </c>
     </row>
-    <row r="15" spans="2:44">
+    <row r="15" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>350</v>
       </c>
@@ -16768,7 +16777,7 @@
         <v>0.22925823561776601</v>
       </c>
     </row>
-    <row r="16" spans="2:44">
+    <row r="16" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>400</v>
       </c>
@@ -16881,7 +16890,7 @@
         <v>0.20705285396298401</v>
       </c>
     </row>
-    <row r="17" spans="2:44">
+    <row r="17" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>450</v>
       </c>
@@ -16994,7 +17003,7 @@
         <v>0.128178801554203</v>
       </c>
     </row>
-    <row r="18" spans="2:44">
+    <row r="18" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>500</v>
       </c>
@@ -17107,7 +17116,7 @@
         <v>0.16160235324036501</v>
       </c>
     </row>
-    <row r="19" spans="2:44">
+    <row r="19" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>550</v>
       </c>
@@ -17220,7 +17229,7 @@
         <v>0.13094089467383499</v>
       </c>
     </row>
-    <row r="20" spans="2:44">
+    <row r="20" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>600</v>
       </c>
@@ -17333,7 +17342,7 @@
         <v>0.123396524494779</v>
       </c>
     </row>
-    <row r="21" spans="2:44">
+    <row r="21" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>650</v>
       </c>
@@ -17446,7 +17455,7 @@
         <v>8.3269445513862006E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:44">
+    <row r="22" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>700</v>
       </c>
@@ -17559,7 +17568,7 @@
         <v>0.117503543945217</v>
       </c>
     </row>
-    <row r="23" spans="2:44">
+    <row r="23" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>750</v>
       </c>
@@ -17672,7 +17681,7 @@
         <v>0.17989436624264199</v>
       </c>
     </row>
-    <row r="24" spans="2:44">
+    <row r="24" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>800</v>
       </c>
@@ -17785,7 +17794,7 @@
         <v>0.16330654569717401</v>
       </c>
     </row>
-    <row r="25" spans="2:44">
+    <row r="25" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>850</v>
       </c>
@@ -17898,7 +17907,7 @@
         <v>0.15599883231240799</v>
       </c>
     </row>
-    <row r="26" spans="2:44">
+    <row r="26" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>900</v>
       </c>
@@ -18011,7 +18020,7 @@
         <v>0.15165123276810899</v>
       </c>
     </row>
-    <row r="27" spans="2:44">
+    <row r="27" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>950</v>
       </c>
@@ -18124,7 +18133,7 @@
         <v>0.103098648387226</v>
       </c>
     </row>
-    <row r="28" spans="2:44">
+    <row r="28" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>1000</v>
       </c>
@@ -18237,7 +18246,7 @@
         <v>0.12337671603281899</v>
       </c>
     </row>
-    <row r="29" spans="2:44">
+    <row r="29" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>1050</v>
       </c>
@@ -18350,7 +18359,7 @@
         <v>0.216212663504496</v>
       </c>
     </row>
-    <row r="30" spans="2:44">
+    <row r="30" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>1100</v>
       </c>
@@ -18463,7 +18472,7 @@
         <v>0.175514201548569</v>
       </c>
     </row>
-    <row r="31" spans="2:44">
+    <row r="31" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>1150</v>
       </c>
@@ -18576,7 +18585,7 @@
         <v>0.202939527245248</v>
       </c>
     </row>
-    <row r="32" spans="2:44">
+    <row r="32" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>1200</v>
       </c>
@@ -18689,7 +18698,7 @@
         <v>0.174882488617256</v>
       </c>
     </row>
-    <row r="33" spans="2:44">
+    <row r="33" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>1250</v>
       </c>
@@ -18802,7 +18811,7 @@
         <v>0.21170906946562701</v>
       </c>
     </row>
-    <row r="34" spans="2:44">
+    <row r="34" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>1300</v>
       </c>
@@ -18915,7 +18924,7 @@
         <v>0.319690041221389</v>
       </c>
     </row>
-    <row r="35" spans="2:44">
+    <row r="35" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>1350</v>
       </c>
@@ -19028,7 +19037,7 @@
         <v>0.32990155660971798</v>
       </c>
     </row>
-    <row r="36" spans="2:44">
+    <row r="36" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>1400</v>
       </c>
@@ -19141,7 +19150,7 @@
         <v>0.49340708521832299</v>
       </c>
     </row>
-    <row r="37" spans="2:44">
+    <row r="37" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>1450</v>
       </c>
@@ -19254,7 +19263,7 @@
         <v>0.54002375215718501</v>
       </c>
     </row>
-    <row r="38" spans="2:44">
+    <row r="38" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>1500</v>
       </c>
@@ -19367,7 +19376,7 @@
         <v>0.588029873143329</v>
       </c>
     </row>
-    <row r="39" spans="2:44">
+    <row r="39" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>1550</v>
       </c>
@@ -19480,7 +19489,7 @@
         <v>0.64382892772443701</v>
       </c>
     </row>
-    <row r="40" spans="2:44">
+    <row r="40" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>1600</v>
       </c>
@@ -19593,7 +19602,7 @@
         <v>0.491098917824214</v>
       </c>
     </row>
-    <row r="41" spans="2:44">
+    <row r="41" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>1650</v>
       </c>
@@ -19706,7 +19715,7 @@
         <v>0.52711590445906598</v>
       </c>
     </row>
-    <row r="42" spans="2:44">
+    <row r="42" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>1700</v>
       </c>
@@ -19819,7 +19828,7 @@
         <v>0.376508820013853</v>
       </c>
     </row>
-    <row r="43" spans="2:44">
+    <row r="43" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>1750</v>
       </c>
@@ -19932,7 +19941,7 @@
         <v>0.36428362353004801</v>
       </c>
     </row>
-    <row r="44" spans="2:44">
+    <row r="44" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>1800</v>
       </c>
@@ -20045,7 +20054,7 @@
         <v>0.20509155627220699</v>
       </c>
     </row>
-    <row r="45" spans="2:44">
+    <row r="45" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>1850</v>
       </c>
@@ -20158,7 +20167,7 @@
         <v>0.36667180690365703</v>
       </c>
     </row>
-    <row r="46" spans="2:44">
+    <row r="46" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>1900</v>
       </c>
@@ -20271,7 +20280,7 @@
         <v>0.466814764407877</v>
       </c>
     </row>
-    <row r="47" spans="2:44">
+    <row r="47" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>1950</v>
       </c>
@@ -20384,7 +20393,7 @@
         <v>0.297723296889773</v>
       </c>
     </row>
-    <row r="48" spans="2:44">
+    <row r="48" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>2000</v>
       </c>
@@ -20497,7 +20506,7 @@
         <v>0.32561050055350299</v>
       </c>
     </row>
-    <row r="49" spans="2:44">
+    <row r="49" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>2050</v>
       </c>
@@ -20610,7 +20619,7 @@
         <v>0.32017212492345698</v>
       </c>
     </row>
-    <row r="50" spans="2:44">
+    <row r="50" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>2100</v>
       </c>
@@ -20723,7 +20732,7 @@
         <v>0.339613761018073</v>
       </c>
     </row>
-    <row r="51" spans="2:44">
+    <row r="51" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>2150</v>
       </c>
@@ -20836,7 +20845,7 @@
         <v>0.258730753529063</v>
       </c>
     </row>
-    <row r="52" spans="2:44">
+    <row r="52" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>2200</v>
       </c>
@@ -20949,7 +20958,7 @@
         <v>0.27849004657036203</v>
       </c>
     </row>
-    <row r="53" spans="2:44">
+    <row r="53" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>2250</v>
       </c>
@@ -21062,7 +21071,7 @@
         <v>0.24030326905500399</v>
       </c>
     </row>
-    <row r="54" spans="2:44">
+    <row r="54" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>2300</v>
       </c>
@@ -21175,7 +21184,7 @@
         <v>0.20460164624011701</v>
       </c>
     </row>
-    <row r="55" spans="2:44">
+    <row r="55" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>2350</v>
       </c>
@@ -21288,7 +21297,7 @@
         <v>0.23234854552658499</v>
       </c>
     </row>
-    <row r="56" spans="2:44">
+    <row r="56" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>2400</v>
       </c>
@@ -21401,7 +21410,7 @@
         <v>0.39792454526017002</v>
       </c>
     </row>
-    <row r="57" spans="2:44">
+    <row r="57" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>2450</v>
       </c>
@@ -21514,7 +21523,7 @@
         <v>0.35172349803172798</v>
       </c>
     </row>
-    <row r="58" spans="2:44">
+    <row r="58" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>2500</v>
       </c>
@@ -21627,7 +21636,7 @@
         <v>0.37614913976139203</v>
       </c>
     </row>
-    <row r="59" spans="2:44">
+    <row r="59" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>2550</v>
       </c>
@@ -21740,7 +21749,7 @@
         <v>0.29627008566587398</v>
       </c>
     </row>
-    <row r="60" spans="2:44">
+    <row r="60" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>2600</v>
       </c>
@@ -21853,7 +21862,7 @@
         <v>0.19805946684657699</v>
       </c>
     </row>
-    <row r="61" spans="2:44">
+    <row r="61" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>2650</v>
       </c>
@@ -21966,7 +21975,7 @@
         <v>0.244939079978024</v>
       </c>
     </row>
-    <row r="62" spans="2:44">
+    <row r="62" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>2700</v>
       </c>
@@ -22079,7 +22088,7 @@
         <v>0.226883591238462</v>
       </c>
     </row>
-    <row r="63" spans="2:44">
+    <row r="63" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>2750</v>
       </c>
@@ -22192,7 +22201,7 @@
         <v>0.28408149027514001</v>
       </c>
     </row>
-    <row r="64" spans="2:44">
+    <row r="64" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>2800</v>
       </c>
@@ -22305,7 +22314,7 @@
         <v>0.42147033489025398</v>
       </c>
     </row>
-    <row r="65" spans="2:44">
+    <row r="65" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>2850</v>
       </c>
@@ -22418,7 +22427,7 @@
         <v>0.48598563329086503</v>
       </c>
     </row>
-    <row r="66" spans="2:44">
+    <row r="66" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>2900</v>
       </c>
@@ -22531,7 +22540,7 @@
         <v>0.53395246121808904</v>
       </c>
     </row>
-    <row r="67" spans="2:44">
+    <row r="67" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>2950</v>
       </c>
@@ -22644,7 +22653,7 @@
         <v>0.53332355708265</v>
       </c>
     </row>
-    <row r="68" spans="2:44">
+    <row r="68" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>3000</v>
       </c>
@@ -22757,7 +22766,7 @@
         <v>0.770709932145895</v>
       </c>
     </row>
-    <row r="69" spans="2:44">
+    <row r="69" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>3050</v>
       </c>
@@ -22870,7 +22879,7 @@
         <v>0.62347710678458701</v>
       </c>
     </row>
-    <row r="70" spans="2:44">
+    <row r="70" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>3100</v>
       </c>
@@ -22983,7 +22992,7 @@
         <v>0.457109362248593</v>
       </c>
     </row>
-    <row r="71" spans="2:44">
+    <row r="71" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>3150</v>
       </c>
@@ -23096,7 +23105,7 @@
         <v>0.42399287989496898</v>
       </c>
     </row>
-    <row r="72" spans="2:44">
+    <row r="72" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>3200</v>
       </c>
@@ -23209,7 +23218,7 @@
         <v>0.288822881113668</v>
       </c>
     </row>
-    <row r="73" spans="2:44">
+    <row r="73" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>3250</v>
       </c>
@@ -23322,7 +23331,7 @@
         <v>0.21526365048387</v>
       </c>
     </row>
-    <row r="74" spans="2:44">
+    <row r="74" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>3300</v>
       </c>
@@ -23435,7 +23444,7 @@
         <v>0.17548190196553001</v>
       </c>
     </row>
-    <row r="75" spans="2:44">
+    <row r="75" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>3350</v>
       </c>
@@ -23548,7 +23557,7 @@
         <v>0.17850332805809099</v>
       </c>
     </row>
-    <row r="76" spans="2:44">
+    <row r="76" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>3400</v>
       </c>
@@ -23661,7 +23670,7 @@
         <v>0.169396743109785</v>
       </c>
     </row>
-    <row r="77" spans="2:44">
+    <row r="77" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>3450</v>
       </c>
@@ -23774,7 +23783,7 @@
         <v>0.17570678237545401</v>
       </c>
     </row>
-    <row r="78" spans="2:44">
+    <row r="78" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>3500</v>
       </c>
@@ -23887,7 +23896,7 @@
         <v>0.18993132576821201</v>
       </c>
     </row>
-    <row r="79" spans="2:44">
+    <row r="79" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>3550</v>
       </c>
@@ -24000,7 +24009,7 @@
         <v>0.271043942232293</v>
       </c>
     </row>
-    <row r="80" spans="2:44">
+    <row r="80" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>3600</v>
       </c>
@@ -24113,7 +24122,7 @@
         <v>0.40209629297236399</v>
       </c>
     </row>
-    <row r="81" spans="2:44">
+    <row r="81" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>3650</v>
       </c>
@@ -24226,7 +24235,7 @@
         <v>0.83166733650503699</v>
       </c>
     </row>
-    <row r="82" spans="2:44">
+    <row r="82" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>3700</v>
       </c>
@@ -24339,7 +24348,7 @@
         <v>0.851226914596804</v>
       </c>
     </row>
-    <row r="83" spans="2:44">
+    <row r="83" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>3750</v>
       </c>
@@ -24452,7 +24461,7 @@
         <v>0.77089873705384004</v>
       </c>
     </row>
-    <row r="84" spans="2:44">
+    <row r="84" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>3800</v>
       </c>
@@ -24565,7 +24574,7 @@
         <v>0.575891983840912</v>
       </c>
     </row>
-    <row r="85" spans="2:44">
+    <row r="85" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>3850</v>
       </c>
@@ -24678,7 +24687,7 @@
         <v>0.433103390044692</v>
       </c>
     </row>
-    <row r="86" spans="2:44">
+    <row r="86" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>3900</v>
       </c>
@@ -24791,7 +24800,7 @@
         <v>0.36289284237886399</v>
       </c>
     </row>
-    <row r="87" spans="2:44">
+    <row r="87" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>3950</v>
       </c>
@@ -24904,7 +24913,7 @@
         <v>0.420353869343777</v>
       </c>
     </row>
-    <row r="88" spans="2:44">
+    <row r="88" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>4000</v>
       </c>
@@ -25017,7 +25026,7 @@
         <v>0.262988699378504</v>
       </c>
     </row>
-    <row r="89" spans="2:44">
+    <row r="89" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>4050</v>
       </c>
@@ -25130,7 +25139,7 @@
         <v>0.24967383559682799</v>
       </c>
     </row>
-    <row r="90" spans="2:44">
+    <row r="90" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>4100</v>
       </c>
@@ -25243,7 +25252,7 @@
         <v>0.298156181635576</v>
       </c>
     </row>
-    <row r="91" spans="2:44">
+    <row r="91" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>4150</v>
       </c>
@@ -25356,7 +25365,7 @@
         <v>0.25166550862895898</v>
       </c>
     </row>
-    <row r="92" spans="2:44">
+    <row r="92" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>4200</v>
       </c>
@@ -25469,7 +25478,7 @@
         <v>0.23345956519064501</v>
       </c>
     </row>
-    <row r="93" spans="2:44">
+    <row r="93" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>4250</v>
       </c>
@@ -25582,7 +25591,7 @@
         <v>0.27041117097277101</v>
       </c>
     </row>
-    <row r="94" spans="2:44">
+    <row r="94" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>4300</v>
       </c>
@@ -25695,7 +25704,7 @@
         <v>0.48147726708871402</v>
       </c>
     </row>
-    <row r="95" spans="2:44">
+    <row r="95" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B95">
         <v>4350</v>
       </c>
@@ -25808,7 +25817,7 @@
         <v>0.53328700207422597</v>
       </c>
     </row>
-    <row r="96" spans="2:44">
+    <row r="96" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B96">
         <v>4400</v>
       </c>
@@ -25921,7 +25930,7 @@
         <v>0.66691327578494797</v>
       </c>
     </row>
-    <row r="97" spans="2:44">
+    <row r="97" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B97">
         <v>4450</v>
       </c>
@@ -26034,7 +26043,7 @@
         <v>0.62686304090509903</v>
       </c>
     </row>
-    <row r="98" spans="2:44">
+    <row r="98" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B98">
         <v>4500</v>
       </c>
@@ -26147,7 +26156,7 @@
         <v>0.77810378242087597</v>
       </c>
     </row>
-    <row r="99" spans="2:44">
+    <row r="99" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B99">
         <v>4550</v>
       </c>
@@ -26260,7 +26269,7 @@
         <v>0.68322300098844202</v>
       </c>
     </row>
-    <row r="100" spans="2:44">
+    <row r="100" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B100">
         <v>4600</v>
       </c>
@@ -26358,7 +26367,7 @@
         <v>0.59715004662809201</v>
       </c>
     </row>
-    <row r="101" spans="2:44">
+    <row r="101" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B101">
         <v>4650</v>
       </c>
@@ -26472,7 +26481,7 @@
         <v>0.658922806205825</v>
       </c>
     </row>
-    <row r="102" spans="2:44">
+    <row r="102" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B102">
         <v>4700</v>
       </c>
@@ -26570,7 +26579,7 @@
         <v>0.63026487738973003</v>
       </c>
     </row>
-    <row r="103" spans="2:44">
+    <row r="103" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B103">
         <v>4750</v>
       </c>
@@ -26668,7 +26677,7 @@
         <v>0.63361292702178096</v>
       </c>
     </row>
-    <row r="104" spans="2:44">
+    <row r="104" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B104">
         <v>4800</v>
       </c>
@@ -26766,7 +26775,7 @@
         <v>0.60290763242637002</v>
       </c>
     </row>
-    <row r="105" spans="2:44">
+    <row r="105" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B105">
         <v>4850</v>
       </c>
@@ -26864,7 +26873,7 @@
         <v>0.52906168219328797</v>
       </c>
     </row>
-    <row r="106" spans="2:44">
+    <row r="106" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B106">
         <v>4900</v>
       </c>
@@ -26962,7 +26971,7 @@
         <v>0.71535400229545698</v>
       </c>
     </row>
-    <row r="107" spans="2:44">
+    <row r="107" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B107">
         <v>4950</v>
       </c>
@@ -27060,7 +27069,7 @@
         <v>0.588208062374318</v>
       </c>
     </row>
-    <row r="108" spans="2:44">
+    <row r="108" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B108">
         <v>5000</v>
       </c>
@@ -27158,7 +27167,7 @@
         <v>0.72530289972829898</v>
       </c>
     </row>
-    <row r="109" spans="2:44">
+    <row r="109" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B109">
         <v>5050</v>
       </c>
@@ -27256,7 +27265,7 @@
         <v>0.84641244476037003</v>
       </c>
     </row>
-    <row r="110" spans="2:44">
+    <row r="110" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B110">
         <v>5100</v>
       </c>
@@ -27354,7 +27363,7 @@
         <v>0.781582490147258</v>
       </c>
     </row>
-    <row r="111" spans="2:44">
+    <row r="111" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B111">
         <v>5150</v>
       </c>
@@ -27452,7 +27461,7 @@
         <v>0.74646249552847799</v>
       </c>
     </row>
-    <row r="112" spans="2:44">
+    <row r="112" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B112">
         <v>5200</v>
       </c>
@@ -27550,7 +27559,7 @@
         <v>0.91485578707022697</v>
       </c>
     </row>
-    <row r="113" spans="2:44">
+    <row r="113" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B113">
         <v>5250</v>
       </c>
@@ -27648,7 +27657,7 @@
         <v>0.75324705225705202</v>
       </c>
     </row>
-    <row r="114" spans="2:44">
+    <row r="114" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B114">
         <v>5300</v>
       </c>
@@ -27746,7 +27755,7 @@
         <v>1.0641943455451199</v>
       </c>
     </row>
-    <row r="115" spans="2:44">
+    <row r="115" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B115">
         <v>5350</v>
       </c>
@@ -27844,7 +27853,7 @@
         <v>1.2021647655868399</v>
       </c>
     </row>
-    <row r="116" spans="2:44">
+    <row r="116" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B116">
         <v>5400</v>
       </c>
@@ -27942,7 +27951,7 @@
         <v>1.40893061843955</v>
       </c>
     </row>
-    <row r="117" spans="2:44">
+    <row r="117" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B117">
         <v>5450</v>
       </c>
@@ -28040,7 +28049,7 @@
         <v>1.0758111241535</v>
       </c>
     </row>
-    <row r="118" spans="2:44">
+    <row r="118" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B118">
         <v>5500</v>
       </c>
@@ -28138,7 +28147,7 @@
         <v>1.3032456514056101</v>
       </c>
     </row>
-    <row r="119" spans="2:44">
+    <row r="119" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B119">
         <v>5550</v>
       </c>
@@ -28236,7 +28245,7 @@
         <v>1.33686163803394</v>
       </c>
     </row>
-    <row r="120" spans="2:44">
+    <row r="120" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B120">
         <v>5600</v>
       </c>
@@ -28334,7 +28343,7 @@
         <v>1.3785492015463601</v>
       </c>
     </row>
-    <row r="121" spans="2:44">
+    <row r="121" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B121">
         <v>5650</v>
       </c>
@@ -28432,7 +28441,7 @@
         <v>1.37821443978195</v>
       </c>
     </row>
-    <row r="122" spans="2:44">
+    <row r="122" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B122">
         <v>5700</v>
       </c>
@@ -28530,7 +28539,7 @@
         <v>1.6039851846123301</v>
       </c>
     </row>
-    <row r="123" spans="2:44">
+    <row r="123" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B123">
         <v>5750</v>
       </c>
@@ -28628,7 +28637,7 @@
         <v>1.9359409100703999</v>
       </c>
     </row>
-    <row r="124" spans="2:44">
+    <row r="124" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B124">
         <v>5800</v>
       </c>
@@ -28726,7 +28735,7 @@
         <v>1.75871557361887</v>
       </c>
     </row>
-    <row r="125" spans="2:44">
+    <row r="125" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B125">
         <v>5850</v>
       </c>
@@ -28824,7 +28833,7 @@
         <v>1.59993388211103</v>
       </c>
     </row>
-    <row r="126" spans="2:44">
+    <row r="126" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B126">
         <v>5900</v>
       </c>
@@ -28922,7 +28931,7 @@
         <v>1.67060489854771</v>
       </c>
     </row>
-    <row r="127" spans="2:44">
+    <row r="127" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B127">
         <v>5950</v>
       </c>
@@ -29020,7 +29029,7 @@
         <v>1.84631318329661</v>
       </c>
     </row>
-    <row r="128" spans="2:44">
+    <row r="128" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B128">
         <v>6000</v>
       </c>
@@ -29118,7 +29127,7 @@
         <v>1.45081126541726</v>
       </c>
     </row>
-    <row r="129" spans="2:44">
+    <row r="129" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B129">
         <v>6050</v>
       </c>
@@ -29216,7 +29225,7 @@
         <v>1.7591084309932099</v>
       </c>
     </row>
-    <row r="130" spans="2:44">
+    <row r="130" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B130">
         <v>6100</v>
       </c>
@@ -29314,7 +29323,7 @@
         <v>1.9457733601776701</v>
       </c>
     </row>
-    <row r="131" spans="2:44">
+    <row r="131" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B131">
         <v>6150</v>
       </c>
@@ -29412,7 +29421,7 @@
         <v>1.5512248982055199</v>
       </c>
     </row>
-    <row r="132" spans="2:44">
+    <row r="132" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B132">
         <v>6200</v>
       </c>
@@ -29510,7 +29519,7 @@
         <v>1.8919910209865101</v>
       </c>
     </row>
-    <row r="133" spans="2:44">
+    <row r="133" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B133">
         <v>6250</v>
       </c>
@@ -29608,7 +29617,7 @@
         <v>2.0831398810693802</v>
       </c>
     </row>
-    <row r="134" spans="2:44">
+    <row r="134" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B134">
         <v>6300</v>
       </c>
@@ -29706,7 +29715,7 @@
         <v>1.91894465607878</v>
       </c>
     </row>
-    <row r="135" spans="2:44">
+    <row r="135" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B135">
         <v>6350</v>
       </c>
@@ -29804,7 +29813,7 @@
         <v>1.62227301246836</v>
       </c>
     </row>
-    <row r="136" spans="2:44">
+    <row r="136" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B136">
         <v>6400</v>
       </c>
@@ -29902,7 +29911,7 @@
         <v>1.39944184362923</v>
       </c>
     </row>
-    <row r="137" spans="2:44">
+    <row r="137" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B137">
         <v>6450</v>
       </c>
@@ -30000,7 +30009,7 @@
         <v>1.0461742062675901</v>
       </c>
     </row>
-    <row r="138" spans="2:44">
+    <row r="138" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B138">
         <v>6500</v>
       </c>
@@ -30098,7 +30107,7 @@
         <v>1.1177240996459901</v>
       </c>
     </row>
-    <row r="139" spans="2:44">
+    <row r="139" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B139">
         <v>6550</v>
       </c>
@@ -30196,7 +30205,7 @@
         <v>1.2231205212582399</v>
       </c>
     </row>
-    <row r="140" spans="2:44">
+    <row r="140" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B140">
         <v>6600</v>
       </c>
@@ -30294,7 +30303,7 @@
         <v>1.8409861286737801</v>
       </c>
     </row>
-    <row r="141" spans="2:44">
+    <row r="141" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B141">
         <v>6650</v>
       </c>
@@ -30392,7 +30401,7 @@
         <v>2.3455707887905102</v>
       </c>
     </row>
-    <row r="142" spans="2:44">
+    <row r="142" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B142">
         <v>6700</v>
       </c>
@@ -30490,7 +30499,7 @@
         <v>2.4487228447462499</v>
       </c>
     </row>
-    <row r="143" spans="2:44">
+    <row r="143" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B143">
         <v>6750</v>
       </c>
@@ -30588,7 +30597,7 @@
         <v>2.1878781938074798</v>
       </c>
     </row>
-    <row r="144" spans="2:44">
+    <row r="144" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B144">
         <v>6800</v>
       </c>
@@ -30686,7 +30695,7 @@
         <v>1.4256896714079901</v>
       </c>
     </row>
-    <row r="145" spans="2:44">
+    <row r="145" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B145">
         <v>6850</v>
       </c>
@@ -30784,7 +30793,7 @@
         <v>1.49793379080902</v>
       </c>
     </row>
-    <row r="146" spans="2:44">
+    <row r="146" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B146">
         <v>6900</v>
       </c>
@@ -30882,7 +30891,7 @@
         <v>1.5020720235420499</v>
       </c>
     </row>
-    <row r="147" spans="2:44">
+    <row r="147" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B147">
         <v>6950</v>
       </c>
@@ -30980,7 +30989,7 @@
         <v>1.55168336307606</v>
       </c>
     </row>
-    <row r="148" spans="2:44">
+    <row r="148" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B148">
         <v>7000</v>
       </c>
@@ -31078,7 +31087,7 @@
         <v>2.2149007400958798</v>
       </c>
     </row>
-    <row r="149" spans="2:44">
+    <row r="149" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B149">
         <v>7050</v>
       </c>
@@ -31176,7 +31185,7 @@
         <v>2.2084923173022499</v>
       </c>
     </row>
-    <row r="150" spans="2:44">
+    <row r="150" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B150">
         <v>7100</v>
       </c>
@@ -31274,7 +31283,7 @@
         <v>2.19503702034174</v>
       </c>
     </row>
-    <row r="151" spans="2:44">
+    <row r="151" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B151">
         <v>7150</v>
       </c>
@@ -31372,7 +31381,7 @@
         <v>2.0257753578587798</v>
       </c>
     </row>
-    <row r="152" spans="2:44">
+    <row r="152" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B152">
         <v>7200</v>
       </c>
@@ -31470,7 +31479,7 @@
         <v>1.95514738981341</v>
       </c>
     </row>
-    <row r="153" spans="2:44">
+    <row r="153" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B153">
         <v>7250</v>
       </c>
@@ -31568,7 +31577,7 @@
         <v>1.51495883740844</v>
       </c>
     </row>
-    <row r="154" spans="2:44">
+    <row r="154" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B154">
         <v>7300</v>
       </c>
@@ -31666,7 +31675,7 @@
         <v>1.28576312034243</v>
       </c>
     </row>
-    <row r="155" spans="2:44">
+    <row r="155" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B155">
         <v>7350</v>
       </c>
@@ -31764,7 +31773,7 @@
         <v>1.2951028500592701</v>
       </c>
     </row>
-    <row r="156" spans="2:44">
+    <row r="156" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B156">
         <v>7400</v>
       </c>
@@ -31862,7 +31871,7 @@
         <v>1.16173881370078</v>
       </c>
     </row>
-    <row r="157" spans="2:44">
+    <row r="157" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B157">
         <v>7450</v>
       </c>
@@ -31960,7 +31969,7 @@
         <v>1.45442411538304</v>
       </c>
     </row>
-    <row r="158" spans="2:44">
+    <row r="158" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B158">
         <v>7500</v>
       </c>
@@ -32058,7 +32067,7 @@
         <v>1.32666707054821</v>
       </c>
     </row>
-    <row r="159" spans="2:44">
+    <row r="159" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B159">
         <v>7550</v>
       </c>
@@ -32156,7 +32165,7 @@
         <v>0.88841771655291002</v>
       </c>
     </row>
-    <row r="160" spans="2:44">
+    <row r="160" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B160">
         <v>7600</v>
       </c>
@@ -32254,7 +32263,7 @@
         <v>1.04296177397015</v>
       </c>
     </row>
-    <row r="161" spans="2:44">
+    <row r="161" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B161">
         <v>7650</v>
       </c>
@@ -32352,7 +32361,7 @@
         <v>0.93703145640615504</v>
       </c>
     </row>
-    <row r="162" spans="2:44">
+    <row r="162" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B162">
         <v>7700</v>
       </c>
@@ -32450,7 +32459,7 @@
         <v>1.13444686845519</v>
       </c>
     </row>
-    <row r="163" spans="2:44">
+    <row r="163" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B163">
         <v>7750</v>
       </c>
@@ -32548,7 +32557,7 @@
         <v>1.2201019290097901</v>
       </c>
     </row>
-    <row r="164" spans="2:44">
+    <row r="164" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B164">
         <v>7800</v>
       </c>
@@ -32646,7 +32655,7 @@
         <v>0.95559262275967605</v>
       </c>
     </row>
-    <row r="165" spans="2:44">
+    <row r="165" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B165">
         <v>7850</v>
       </c>
@@ -32744,7 +32753,7 @@
         <v>0.94530109582203703</v>
       </c>
     </row>
-    <row r="166" spans="2:44">
+    <row r="166" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B166">
         <v>7900</v>
       </c>
@@ -32842,7 +32851,7 @@
         <v>0.82567122867621801</v>
       </c>
     </row>
-    <row r="167" spans="2:44">
+    <row r="167" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B167">
         <v>7950</v>
       </c>
@@ -32940,7 +32949,7 @@
         <v>1.10997573383396</v>
       </c>
     </row>
-    <row r="168" spans="2:44">
+    <row r="168" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B168">
         <v>8000</v>
       </c>
@@ -33038,7 +33047,7 @@
         <v>1.2346037083655099</v>
       </c>
     </row>
-    <row r="169" spans="2:44">
+    <row r="169" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B169">
         <v>8050</v>
       </c>
@@ -33136,7 +33145,7 @@
         <v>1.5210455046829801</v>
       </c>
     </row>
-    <row r="170" spans="2:44">
+    <row r="170" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B170">
         <v>8100</v>
       </c>
@@ -33234,7 +33243,7 @@
         <v>1.4978293211737299</v>
       </c>
     </row>
-    <row r="171" spans="2:44">
+    <row r="171" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B171">
         <v>8150</v>
       </c>
@@ -33332,7 +33341,7 @@
         <v>1.4088506769214499</v>
       </c>
     </row>
-    <row r="172" spans="2:44">
+    <row r="172" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B172">
         <v>8200</v>
       </c>
@@ -33430,7 +33439,7 @@
         <v>1.0847882412676499</v>
       </c>
     </row>
-    <row r="173" spans="2:44">
+    <row r="173" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B173">
         <v>8250</v>
       </c>
@@ -33528,7 +33537,7 @@
         <v>0.92775303906008599</v>
       </c>
     </row>
-    <row r="174" spans="2:44">
+    <row r="174" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B174">
         <v>8300</v>
       </c>
@@ -33626,7 +33635,7 @@
         <v>0.90686441076490598</v>
       </c>
     </row>
-    <row r="175" spans="2:44">
+    <row r="175" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B175">
         <v>8350</v>
       </c>
@@ -33724,7 +33733,7 @@
         <v>0.87729678238520203</v>
       </c>
     </row>
-    <row r="176" spans="2:44">
+    <row r="176" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B176">
         <v>8400</v>
       </c>
@@ -33822,7 +33831,7 @@
         <v>0.82620883908808196</v>
       </c>
     </row>
-    <row r="177" spans="2:44">
+    <row r="177" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B177">
         <v>8450</v>
       </c>
@@ -33920,7 +33929,7 @@
         <v>0.41844429919641601</v>
       </c>
     </row>
-    <row r="178" spans="2:44">
+    <row r="178" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B178">
         <v>8500</v>
       </c>
@@ -34018,7 +34027,7 @@
         <v>0.40570631290133002</v>
       </c>
     </row>
-    <row r="179" spans="2:44">
+    <row r="179" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B179">
         <v>8550</v>
       </c>
@@ -34116,7 +34125,7 @@
         <v>0.56872625566143997</v>
       </c>
     </row>
-    <row r="180" spans="2:44">
+    <row r="180" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B180">
         <v>8600</v>
       </c>
@@ -34214,7 +34223,7 @@
         <v>0.486285766888919</v>
       </c>
     </row>
-    <row r="181" spans="2:44">
+    <row r="181" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B181">
         <v>8650</v>
       </c>
@@ -34312,7 +34321,7 @@
         <v>0.74644629213323299</v>
       </c>
     </row>
-    <row r="182" spans="2:44">
+    <row r="182" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B182">
         <v>8700</v>
       </c>
@@ -34410,7 +34419,7 @@
         <v>0.61165442153848404</v>
       </c>
     </row>
-    <row r="183" spans="2:44">
+    <row r="183" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B183">
         <v>8750</v>
       </c>
@@ -34508,7 +34517,7 @@
         <v>0.37148977977640002</v>
       </c>
     </row>
-    <row r="184" spans="2:44">
+    <row r="184" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B184">
         <v>8800</v>
       </c>
@@ -34606,7 +34615,7 @@
         <v>0.42697204234538799</v>
       </c>
     </row>
-    <row r="185" spans="2:44">
+    <row r="185" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B185">
         <v>8850</v>
       </c>
@@ -34704,7 +34713,7 @@
         <v>0.58076330933822895</v>
       </c>
     </row>
-    <row r="186" spans="2:44">
+    <row r="186" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B186">
         <v>8900</v>
       </c>
@@ -34802,7 +34811,7 @@
         <v>0.69420833981544305</v>
       </c>
     </row>
-    <row r="187" spans="2:44">
+    <row r="187" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B187">
         <v>8950</v>
       </c>
@@ -34900,7 +34909,7 @@
         <v>1.04321589546849</v>
       </c>
     </row>
-    <row r="188" spans="2:44">
+    <row r="188" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B188">
         <v>9000</v>
       </c>
@@ -34998,7 +35007,7 @@
         <v>0.923334035319191</v>
       </c>
     </row>
-    <row r="189" spans="2:44">
+    <row r="189" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B189">
         <v>9050</v>
       </c>
@@ -35096,7 +35105,7 @@
         <v>0.97849713779115299</v>
       </c>
     </row>
-    <row r="190" spans="2:44">
+    <row r="190" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B190">
         <v>9100</v>
       </c>
@@ -35194,7 +35203,7 @@
         <v>0.96104329122673604</v>
       </c>
     </row>
-    <row r="191" spans="2:44">
+    <row r="191" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B191">
         <v>9150</v>
       </c>
@@ -35292,7 +35301,7 @@
         <v>0.84292325111617805</v>
       </c>
     </row>
-    <row r="192" spans="2:44">
+    <row r="192" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B192">
         <v>9200</v>
       </c>
@@ -35390,7 +35399,7 @@
         <v>0.87096433882445501</v>
       </c>
     </row>
-    <row r="193" spans="2:44">
+    <row r="193" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B193">
         <v>9250</v>
       </c>
@@ -35488,7 +35497,7 @@
         <v>0.88950222953620295</v>
       </c>
     </row>
-    <row r="194" spans="2:44">
+    <row r="194" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B194">
         <v>9300</v>
       </c>
@@ -35586,7 +35595,7 @@
         <v>0.73843760022609095</v>
       </c>
     </row>
-    <row r="195" spans="2:44">
+    <row r="195" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B195">
         <v>9350</v>
       </c>
@@ -35684,7 +35693,7 @@
         <v>0.67906519353718398</v>
       </c>
     </row>
-    <row r="196" spans="2:44">
+    <row r="196" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B196">
         <v>9400</v>
       </c>
@@ -35782,7 +35791,7 @@
         <v>0.66406772556061</v>
       </c>
     </row>
-    <row r="197" spans="2:44">
+    <row r="197" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B197">
         <v>9450</v>
       </c>
@@ -35880,7 +35889,7 @@
         <v>0.61091571261206201</v>
       </c>
     </row>
-    <row r="198" spans="2:44">
+    <row r="198" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B198">
         <v>9500</v>
       </c>
@@ -35978,7 +35987,7 @@
         <v>0.53564978459658996</v>
       </c>
     </row>
-    <row r="199" spans="2:44">
+    <row r="199" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B199">
         <v>9550</v>
       </c>
@@ -36076,7 +36085,7 @@
         <v>0.49049607095256598</v>
       </c>
     </row>
-    <row r="200" spans="2:44">
+    <row r="200" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B200">
         <v>9600</v>
       </c>
@@ -36174,7 +36183,7 @@
         <v>0.51713063766061695</v>
       </c>
     </row>
-    <row r="201" spans="2:44">
+    <row r="201" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B201">
         <v>9650</v>
       </c>
@@ -36272,7 +36281,7 @@
         <v>0.49310354172613202</v>
       </c>
     </row>
-    <row r="202" spans="2:44">
+    <row r="202" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B202">
         <v>9700</v>
       </c>
@@ -36370,7 +36379,7 @@
         <v>0.58226469571685002</v>
       </c>
     </row>
-    <row r="203" spans="2:44">
+    <row r="203" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B203">
         <v>9750</v>
       </c>
@@ -36468,7 +36477,7 @@
         <v>0.69551214881587697</v>
       </c>
     </row>
-    <row r="204" spans="2:44">
+    <row r="204" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B204">
         <v>9800</v>
       </c>
@@ -36566,7 +36575,7 @@
         <v>0.67532165897271001</v>
       </c>
     </row>
-    <row r="205" spans="2:44">
+    <row r="205" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B205">
         <v>9850</v>
       </c>
@@ -36664,7 +36673,7 @@
         <v>0.60552312039544798</v>
       </c>
     </row>
-    <row r="206" spans="2:44">
+    <row r="206" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B206">
         <v>9900</v>
       </c>
@@ -36762,7 +36771,7 @@
         <v>0.28574624902617601</v>
       </c>
     </row>
-    <row r="207" spans="2:44">
+    <row r="207" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B207">
         <v>9950</v>
       </c>
@@ -36860,7 +36869,7 @@
         <v>0.42729059388205898</v>
       </c>
     </row>
-    <row r="208" spans="2:44">
+    <row r="208" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B208">
         <v>10000</v>
       </c>
@@ -36958,7 +36967,7 @@
         <v>0.54127817577236503</v>
       </c>
     </row>
-    <row r="209" spans="2:44">
+    <row r="209" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B209">
         <v>10050</v>
       </c>
@@ -37056,7 +37065,7 @@
         <v>0.75956991920916195</v>
       </c>
     </row>
-    <row r="210" spans="2:44">
+    <row r="210" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B210">
         <v>10100</v>
       </c>
@@ -37154,7 +37163,7 @@
         <v>0.69946027632334495</v>
       </c>
     </row>
-    <row r="211" spans="2:44">
+    <row r="211" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B211">
         <v>10150</v>
       </c>
@@ -37252,7 +37261,7 @@
         <v>0.53495398048705201</v>
       </c>
     </row>
-    <row r="212" spans="2:44">
+    <row r="212" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B212">
         <v>10200</v>
       </c>
@@ -37350,7 +37359,7 @@
         <v>0.72010061882097198</v>
       </c>
     </row>
-    <row r="213" spans="2:44">
+    <row r="213" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B213">
         <v>10250</v>
       </c>
@@ -37448,7 +37457,7 @@
         <v>0.76632544490170795</v>
       </c>
     </row>
-    <row r="214" spans="2:44">
+    <row r="214" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B214">
         <v>10300</v>
       </c>
@@ -37546,7 +37555,7 @@
         <v>0.54083568319780595</v>
       </c>
     </row>
-    <row r="215" spans="2:44">
+    <row r="215" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B215">
         <v>10350</v>
       </c>
@@ -37644,7 +37653,7 @@
         <v>0.66604851163502798</v>
       </c>
     </row>
-    <row r="216" spans="2:44">
+    <row r="216" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B216">
         <v>10400</v>
       </c>
@@ -37742,7 +37751,7 @@
         <v>0.75124297590629097</v>
       </c>
     </row>
-    <row r="217" spans="2:44">
+    <row r="217" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B217">
         <v>10450</v>
       </c>
@@ -37840,7 +37849,7 @@
         <v>0.65449958408965403</v>
       </c>
     </row>
-    <row r="218" spans="2:44">
+    <row r="218" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B218">
         <v>10500</v>
       </c>
@@ -37938,7 +37947,7 @@
         <v>0.52872037021572604</v>
       </c>
     </row>
-    <row r="219" spans="2:44">
+    <row r="219" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B219">
         <v>10550</v>
       </c>
@@ -38036,7 +38045,7 @@
         <v>0.63999293025709802</v>
       </c>
     </row>
-    <row r="220" spans="2:44">
+    <row r="220" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B220">
         <v>10600</v>
       </c>
@@ -38134,7 +38143,7 @@
         <v>0.43447797953232598</v>
       </c>
     </row>
-    <row r="221" spans="2:44">
+    <row r="221" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B221">
         <v>10650</v>
       </c>
@@ -38232,7 +38241,7 @@
         <v>0.570665067719062</v>
       </c>
     </row>
-    <row r="222" spans="2:44">
+    <row r="222" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B222">
         <v>10700</v>
       </c>
@@ -38330,7 +38339,7 @@
         <v>0.68510942025232002</v>
       </c>
     </row>
-    <row r="223" spans="2:44">
+    <row r="223" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B223">
         <v>10750</v>
       </c>
@@ -38428,7 +38437,7 @@
         <v>0.70564674736530697</v>
       </c>
     </row>
-    <row r="224" spans="2:44">
+    <row r="224" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B224">
         <v>10800</v>
       </c>
@@ -38526,7 +38535,7 @@
         <v>0.67626270776920205</v>
       </c>
     </row>
-    <row r="225" spans="2:44">
+    <row r="225" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B225">
         <v>10850</v>
       </c>
@@ -38624,7 +38633,7 @@
         <v>0.52972095344706505</v>
       </c>
     </row>
-    <row r="226" spans="2:44">
+    <row r="226" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B226">
         <v>10900</v>
       </c>
@@ -38722,7 +38731,7 @@
         <v>0.51564957575973702</v>
       </c>
     </row>
-    <row r="227" spans="2:44">
+    <row r="227" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B227">
         <v>10950</v>
       </c>
@@ -38820,7 +38829,7 @@
         <v>0.623905205059891</v>
       </c>
     </row>
-    <row r="228" spans="2:44">
+    <row r="228" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B228">
         <v>11000</v>
       </c>
@@ -38918,7 +38927,7 @@
         <v>0.66907297740582306</v>
       </c>
     </row>
-    <row r="229" spans="2:44">
+    <row r="229" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B229">
         <v>11050</v>
       </c>
@@ -39016,7 +39025,7 @@
         <v>0.50385857694477298</v>
       </c>
     </row>
-    <row r="230" spans="2:44">
+    <row r="230" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B230">
         <v>11100</v>
       </c>
@@ -39114,7 +39123,7 @@
         <v>0.54661737366868102</v>
       </c>
     </row>
-    <row r="231" spans="2:44">
+    <row r="231" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B231">
         <v>11150</v>
       </c>
@@ -39212,7 +39221,7 @@
         <v>0.40737284925730299</v>
       </c>
     </row>
-    <row r="232" spans="2:44">
+    <row r="232" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B232">
         <v>11200</v>
       </c>
@@ -39310,7 +39319,7 @@
         <v>0.55902286742091201</v>
       </c>
     </row>
-    <row r="233" spans="2:44">
+    <row r="233" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B233">
         <v>11250</v>
       </c>
@@ -39408,7 +39417,7 @@
         <v>0.47312155279382201</v>
       </c>
     </row>
-    <row r="234" spans="2:44">
+    <row r="234" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B234">
         <v>11300</v>
       </c>
@@ -39506,7 +39515,7 @@
         <v>0.41122686212223097</v>
       </c>
     </row>
-    <row r="235" spans="2:44">
+    <row r="235" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B235">
         <v>11350</v>
       </c>
@@ -39604,7 +39613,7 @@
         <v>0.594899369179687</v>
       </c>
     </row>
-    <row r="236" spans="2:44">
+    <row r="236" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B236">
         <v>11400</v>
       </c>
@@ -39702,7 +39711,7 @@
         <v>0.65446640512585597</v>
       </c>
     </row>
-    <row r="237" spans="2:44">
+    <row r="237" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B237">
         <v>11450</v>
       </c>
@@ -39800,7 +39809,7 @@
         <v>0.70603976204479202</v>
       </c>
     </row>
-    <row r="238" spans="2:44">
+    <row r="238" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B238">
         <v>11500</v>
       </c>
@@ -39898,7 +39907,7 @@
         <v>0.62955735389135503</v>
       </c>
     </row>
-    <row r="239" spans="2:44">
+    <row r="239" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B239">
         <v>11550</v>
       </c>
@@ -39996,7 +40005,7 @@
         <v>0.63437430324487099</v>
       </c>
     </row>
-    <row r="240" spans="2:44">
+    <row r="240" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B240">
         <v>11600</v>
       </c>
@@ -40094,7 +40103,7 @@
         <v>1.0377551947721999</v>
       </c>
     </row>
-    <row r="241" spans="2:44">
+    <row r="241" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B241">
         <v>11650</v>
       </c>
@@ -40192,7 +40201,7 @@
         <v>0.80025939835286897</v>
       </c>
     </row>
-    <row r="242" spans="2:44">
+    <row r="242" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B242">
         <v>11700</v>
       </c>
@@ -40290,7 +40299,7 @@
         <v>0.91111274924219299</v>
       </c>
     </row>
-    <row r="243" spans="2:44">
+    <row r="243" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B243">
         <v>11750</v>
       </c>
@@ -40388,7 +40397,7 @@
         <v>0.85921075985028295</v>
       </c>
     </row>
-    <row r="244" spans="2:44">
+    <row r="244" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B244">
         <v>11800</v>
       </c>
@@ -40486,7 +40495,7 @@
         <v>0.89502192295512595</v>
       </c>
     </row>
-    <row r="245" spans="2:44">
+    <row r="245" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B245">
         <v>11850</v>
       </c>
@@ -40584,7 +40593,7 @@
         <v>0.753286244701318</v>
       </c>
     </row>
-    <row r="246" spans="2:44">
+    <row r="246" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B246">
         <v>11900</v>
       </c>
@@ -40682,7 +40691,7 @@
         <v>0.54369021016324803</v>
       </c>
     </row>
-    <row r="247" spans="2:44">
+    <row r="247" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B247">
         <v>11950</v>
       </c>
@@ -40780,7 +40789,7 @@
         <v>0.55084520966459705</v>
       </c>
     </row>
-    <row r="248" spans="2:44">
+    <row r="248" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B248">
         <v>12000</v>
       </c>
@@ -40878,7 +40887,7 @@
         <v>0.51608319467660202</v>
       </c>
     </row>
-    <row r="249" spans="2:44">
+    <row r="249" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B249">
         <v>12050</v>
       </c>
@@ -40976,7 +40985,7 @@
         <v>0.68159552684503899</v>
       </c>
     </row>
-    <row r="250" spans="2:44">
+    <row r="250" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B250">
         <v>12100</v>
       </c>
@@ -41074,7 +41083,7 @@
         <v>0.69053770053264396</v>
       </c>
     </row>
-    <row r="251" spans="2:44">
+    <row r="251" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B251">
         <v>12150</v>
       </c>
@@ -41172,7 +41181,7 @@
         <v>0.83663234725175795</v>
       </c>
     </row>
-    <row r="252" spans="2:44">
+    <row r="252" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B252">
         <v>12200</v>
       </c>
@@ -41270,7 +41279,7 @@
         <v>0.87818402008626595</v>
       </c>
     </row>
-    <row r="253" spans="2:44">
+    <row r="253" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B253">
         <v>12250</v>
       </c>
@@ -41368,7 +41377,7 @@
         <v>0.852762568002288</v>
       </c>
     </row>
-    <row r="254" spans="2:44">
+    <row r="254" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B254">
         <v>12300</v>
       </c>
@@ -41466,7 +41475,7 @@
         <v>1.00786775331474</v>
       </c>
     </row>
-    <row r="255" spans="2:44">
+    <row r="255" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B255">
         <v>12350</v>
       </c>
@@ -41564,7 +41573,7 @@
         <v>1.4722932217864499</v>
       </c>
     </row>
-    <row r="256" spans="2:44">
+    <row r="256" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B256">
         <v>12400</v>
       </c>
@@ -41662,7 +41671,7 @@
         <v>1.4735198542142001</v>
       </c>
     </row>
-    <row r="257" spans="2:44">
+    <row r="257" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B257">
         <v>12450</v>
       </c>
@@ -41760,7 +41769,7 @@
         <v>0.90371958000336305</v>
       </c>
     </row>
-    <row r="258" spans="2:44">
+    <row r="258" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B258">
         <v>12500</v>
       </c>
@@ -41858,7 +41867,7 @@
         <v>1.0319318667419699</v>
       </c>
     </row>
-    <row r="259" spans="2:44">
+    <row r="259" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B259">
         <v>12550</v>
       </c>
@@ -41956,7 +41965,7 @@
         <v>0.99692763499023196</v>
       </c>
     </row>
-    <row r="260" spans="2:44">
+    <row r="260" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B260">
         <v>12600</v>
       </c>
@@ -42054,7 +42063,7 @@
         <v>0.78149411053574003</v>
       </c>
     </row>
-    <row r="261" spans="2:44">
+    <row r="261" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B261">
         <v>12650</v>
       </c>
@@ -42152,7 +42161,7 @@
         <v>0.86834126559087899</v>
       </c>
     </row>
-    <row r="262" spans="2:44">
+    <row r="262" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B262">
         <v>12700</v>
       </c>
@@ -42250,7 +42259,7 @@
         <v>0.97335120608442705</v>
       </c>
     </row>
-    <row r="263" spans="2:44">
+    <row r="263" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B263">
         <v>12750</v>
       </c>
@@ -42348,7 +42357,7 @@
         <v>0.875985234538604</v>
       </c>
     </row>
-    <row r="264" spans="2:44">
+    <row r="264" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B264">
         <v>12800</v>
       </c>
@@ -42446,7 +42455,7 @@
         <v>0.91772350633983901</v>
       </c>
     </row>
-    <row r="265" spans="2:44">
+    <row r="265" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B265">
         <v>12850</v>
       </c>
@@ -42544,7 +42553,7 @@
         <v>1.1306507417284399</v>
       </c>
     </row>
-    <row r="266" spans="2:44">
+    <row r="266" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B266">
         <v>12900</v>
       </c>
@@ -42642,7 +42651,7 @@
         <v>1.00641998141985</v>
       </c>
     </row>
-    <row r="267" spans="2:44">
+    <row r="267" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B267">
         <v>12950</v>
       </c>
@@ -42740,7 +42749,7 @@
         <v>0.69824782874845703</v>
       </c>
     </row>
-    <row r="268" spans="2:44">
+    <row r="268" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B268">
         <v>13000</v>
       </c>
@@ -42838,7 +42847,7 @@
         <v>0.50055704403217904</v>
       </c>
     </row>
-    <row r="269" spans="2:44">
+    <row r="269" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B269">
         <v>13050</v>
       </c>
@@ -42936,7 +42945,7 @@
         <v>0.362981665159198</v>
       </c>
     </row>
-    <row r="270" spans="2:44">
+    <row r="270" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B270">
         <v>13100</v>
       </c>
@@ -43034,7 +43043,7 @@
         <v>0.48557940174404501</v>
       </c>
     </row>
-    <row r="271" spans="2:44">
+    <row r="271" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B271">
         <v>13150</v>
       </c>
@@ -43132,7 +43141,7 @@
         <v>0.63656318554125102</v>
       </c>
     </row>
-    <row r="272" spans="2:44">
+    <row r="272" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B272">
         <v>13200</v>
       </c>
@@ -43230,7 +43239,7 @@
         <v>0.829715980988741</v>
       </c>
     </row>
-    <row r="273" spans="2:44">
+    <row r="273" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B273">
         <v>13250</v>
       </c>
@@ -43328,7 +43337,7 @@
         <v>0.81227983125685399</v>
       </c>
     </row>
-    <row r="274" spans="2:44">
+    <row r="274" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B274">
         <v>13300</v>
       </c>
@@ -43426,7 +43435,7 @@
         <v>0.61607816149897998</v>
       </c>
     </row>
-    <row r="275" spans="2:44">
+    <row r="275" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B275">
         <v>13350</v>
       </c>
@@ -43524,7 +43533,7 @@
         <v>0.55172851964249703</v>
       </c>
     </row>
-    <row r="276" spans="2:44">
+    <row r="276" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B276">
         <v>13400</v>
       </c>
@@ -43622,7 +43631,7 @@
         <v>0.42638782700525002</v>
       </c>
     </row>
-    <row r="277" spans="2:44">
+    <row r="277" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B277">
         <v>13450</v>
       </c>
@@ -43720,7 +43729,7 @@
         <v>0.39904802926851501</v>
       </c>
     </row>
-    <row r="278" spans="2:44">
+    <row r="278" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B278">
         <v>13500</v>
       </c>
@@ -43818,7 +43827,7 @@
         <v>0.52387583286149897</v>
       </c>
     </row>
-    <row r="279" spans="2:44">
+    <row r="279" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B279">
         <v>13550</v>
       </c>
@@ -43916,7 +43925,7 @@
         <v>0.54307271021745995</v>
       </c>
     </row>
-    <row r="280" spans="2:44">
+    <row r="280" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B280">
         <v>13600</v>
       </c>
@@ -44014,7 +44023,7 @@
         <v>0.58951951816445403</v>
       </c>
     </row>
-    <row r="281" spans="2:44">
+    <row r="281" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B281">
         <v>13650</v>
       </c>
@@ -44112,7 +44121,7 @@
         <v>0.72792449898203504</v>
       </c>
     </row>
-    <row r="282" spans="2:44">
+    <row r="282" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B282">
         <v>13700</v>
       </c>
@@ -44210,7 +44219,7 @@
         <v>0.73617532759662097</v>
       </c>
     </row>
-    <row r="283" spans="2:44">
+    <row r="283" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B283">
         <v>13750</v>
       </c>
@@ -44308,7 +44317,7 @@
         <v>0.65563431158489005</v>
       </c>
     </row>
-    <row r="284" spans="2:44">
+    <row r="284" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B284">
         <v>13800</v>
       </c>
@@ -44406,7 +44415,7 @@
         <v>0.66395918493366501</v>
       </c>
     </row>
-    <row r="285" spans="2:44">
+    <row r="285" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B285">
         <v>13850</v>
       </c>
@@ -44504,7 +44513,7 @@
         <v>0.70648491030521199</v>
       </c>
     </row>
-    <row r="286" spans="2:44">
+    <row r="286" spans="2:44" x14ac:dyDescent="0.2">
       <c r="L286" s="1"/>
       <c r="AH286">
         <v>13900</v>
@@ -44537,7 +44546,7 @@
         <v>0.588069051930727</v>
       </c>
     </row>
-    <row r="287" spans="2:44">
+    <row r="287" spans="2:44" x14ac:dyDescent="0.2">
       <c r="J287" s="1"/>
       <c r="AH287">
         <v>13950</v>
@@ -44570,7 +44579,7 @@
         <v>0.52055154695848804</v>
       </c>
     </row>
-    <row r="288" spans="2:44">
+    <row r="288" spans="2:44" x14ac:dyDescent="0.2">
       <c r="K288" s="1"/>
       <c r="AH288">
         <v>14000</v>
@@ -44603,104 +44612,104 @@
         <v>0.55549415596185703</v>
       </c>
     </row>
-    <row r="295" spans="10:10">
+    <row r="295" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J295" s="1"/>
     </row>
-    <row r="300" spans="10:10">
+    <row r="300" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J300" s="1"/>
     </row>
-    <row r="305" spans="10:12">
+    <row r="305" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J305" s="1"/>
       <c r="K305" s="1"/>
     </row>
-    <row r="309" spans="10:12">
+    <row r="309" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L309" s="1"/>
     </row>
-    <row r="319" spans="10:12">
+    <row r="319" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L319" s="1"/>
     </row>
-    <row r="323" spans="10:12">
+    <row r="323" spans="10:12" x14ac:dyDescent="0.2">
       <c r="K323" s="1"/>
     </row>
-    <row r="325" spans="10:12">
+    <row r="325" spans="10:12" x14ac:dyDescent="0.2">
       <c r="K325" s="1"/>
     </row>
-    <row r="328" spans="10:12">
+    <row r="328" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L328" s="1"/>
     </row>
-    <row r="332" spans="10:12">
+    <row r="332" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L332" s="1"/>
     </row>
-    <row r="333" spans="10:12">
+    <row r="333" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L333" s="1"/>
     </row>
-    <row r="336" spans="10:12">
+    <row r="336" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J336" s="1"/>
     </row>
-    <row r="337" spans="10:12">
+    <row r="337" spans="10:12" x14ac:dyDescent="0.2">
       <c r="K337" s="1"/>
     </row>
-    <row r="339" spans="10:12">
+    <row r="339" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J339" s="1"/>
     </row>
-    <row r="342" spans="10:12">
+    <row r="342" spans="10:12" x14ac:dyDescent="0.2">
       <c r="K342" s="1"/>
     </row>
-    <row r="346" spans="10:12">
+    <row r="346" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J346" s="1"/>
     </row>
-    <row r="347" spans="10:12">
+    <row r="347" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L347" s="1"/>
     </row>
-    <row r="351" spans="10:12">
+    <row r="351" spans="10:12" x14ac:dyDescent="0.2">
       <c r="K351" s="1"/>
       <c r="L351" s="1"/>
     </row>
-    <row r="354" spans="10:12">
+    <row r="354" spans="10:12" x14ac:dyDescent="0.2">
       <c r="K354" s="1"/>
     </row>
-    <row r="357" spans="10:12">
+    <row r="357" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L357" s="1"/>
     </row>
-    <row r="360" spans="10:12">
+    <row r="360" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J360" s="1"/>
     </row>
-    <row r="367" spans="10:12">
+    <row r="367" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L367" s="1"/>
     </row>
-    <row r="372" spans="10:12">
+    <row r="372" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J372" s="1"/>
       <c r="K372" s="1"/>
     </row>
-    <row r="374" spans="10:12">
+    <row r="374" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L374" s="1"/>
     </row>
-    <row r="378" spans="10:12">
+    <row r="378" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L378" s="1"/>
     </row>
-    <row r="381" spans="10:12">
+    <row r="381" spans="10:12" x14ac:dyDescent="0.2">
       <c r="K381" s="1"/>
     </row>
-    <row r="385" spans="10:12">
+    <row r="385" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L385" s="1"/>
     </row>
-    <row r="387" spans="10:12">
+    <row r="387" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L387" s="1"/>
     </row>
-    <row r="390" spans="10:12">
+    <row r="390" spans="10:12" x14ac:dyDescent="0.2">
       <c r="K390" s="1"/>
     </row>
-    <row r="396" spans="10:12">
+    <row r="396" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J396" s="1"/>
       <c r="K396" s="1"/>
     </row>
-    <row r="399" spans="10:12">
+    <row r="399" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L399" s="1"/>
     </row>
-    <row r="401" spans="10:11">
+    <row r="401" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J401" s="1"/>
     </row>
-    <row r="402" spans="10:11">
+    <row r="402" spans="10:11" x14ac:dyDescent="0.2">
       <c r="K402" s="1"/>
     </row>
   </sheetData>
@@ -44714,20 +44723,20 @@
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -44738,18 +44747,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C4" s="1">
         <f>C3/1000000</f>
         <v>2.2999999999999999E-9</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -44767,7 +44776,7 @@
         <v>6.7708888888888882E-9</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>16</v>
       </c>
